--- a/dr/protected/commands/template/m_template_iaib.xlsx
+++ b/dr/protected/commands/template/m_template_iaib.xlsx
@@ -617,6 +617,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
       <t>今月IAIB</t>
     </r>
     <r>
@@ -752,7 +759,7 @@
     <t>技术员生产力</t>
   </si>
   <si>
-    <t>上月技术员平均生意额超出标准门栏比例 （标准：30000/月， 当地平均技术员生意额 - 标准生意额 / 标准生意额 ），主管/主任级别以下技术员</t>
+    <t>技术员平均生意额超出标准门栏比例 （标准：30000/月， 当地平均技术员生意额 - 标准生意额 / 标准生意额 ），主管/主任级别以下技术员</t>
   </si>
   <si>
     <t>&gt;20% : 5
@@ -763,7 +770,7 @@
 &lt; -30% : 0</t>
   </si>
   <si>
-    <t>上月技术员最高生意额技术员金额跟标准比较  （标准：30000/月)</t>
+    <t>技术员最高生意额技术员金额跟标准比较  （标准：30000/月)</t>
   </si>
   <si>
     <t>&gt;70% : 5
@@ -771,7 +778,7 @@
 10% - 30% ： 3</t>
   </si>
   <si>
-    <t>上月技术员最高生意额技术员金额</t>
+    <t>技术员最高生意额技术员金额</t>
   </si>
   <si>
     <t>仅供参考，不计算分数</t>
@@ -1159,6 +1166,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">质检问题客户数量比例                                         </t>
     </r>
     <r>
@@ -1237,6 +1250,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">&gt;20% : 3
 10% - 20% : 5
 0% - 10% : 1                    </t>
@@ -1539,12 +1558,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="45">
     <font>
@@ -1650,9 +1669,36 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1666,58 +1712,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1740,23 +1742,77 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1770,51 +1826,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1846,12 +1865,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1896,102 +1915,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2004,7 +1927,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2016,13 +2071,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2034,37 +2119,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor indexed="30"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2076,49 +2149,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2149,18 +2180,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2275,17 +2294,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2310,17 +2318,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2342,11 +2346,20 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color theme="4"/>
+        <color indexed="62"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2360,11 +2373,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2397,205 +2416,205 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2604,25 +2623,25 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2645,10 +2664,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="68" applyFont="1" applyFill="1">
@@ -2666,7 +2685,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2684,10 +2703,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2705,7 +2724,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2714,34 +2733,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2756,28 +2775,28 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2786,28 +2805,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="68" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="2" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="11" fillId="2" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="11" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2822,16 +2841,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2840,34 +2859,34 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1">
@@ -2879,16 +2898,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="11" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2906,19 +2925,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2930,40 +2949,40 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2975,31 +2994,31 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="11" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3008,19 +3027,19 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyFont="1" applyFill="1" applyBorder="1">
@@ -3032,19 +3051,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3055,10 +3074,10 @@
     <cellStyle name="输入" xfId="3" builtinId="20"/>
     <cellStyle name="货币" xfId="4" builtinId="4"/>
     <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 輔色4" xfId="7"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="40% - 輔色2" xfId="9"/>
+    <cellStyle name="差" xfId="6" builtinId="27"/>
+    <cellStyle name="40% - 輔色2" xfId="7"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
+    <cellStyle name="20% - 輔色4" xfId="9"/>
     <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
     <cellStyle name="超链接" xfId="12" builtinId="8"/>
@@ -3090,26 +3109,26 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="38" builtinId="31"/>
     <cellStyle name="20% - 輔色2" xfId="39"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="20% - 輔色3" xfId="42"/>
-    <cellStyle name="40% - 輔色1" xfId="43"/>
+    <cellStyle name="40% - 輔色1" xfId="41"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
+    <cellStyle name="20% - 輔色3" xfId="43"/>
     <cellStyle name="强调文字颜色 3" xfId="44" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="45" builtinId="41"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
-    <cellStyle name="20% - 輔色5" xfId="48"/>
-    <cellStyle name="40% - 輔色3" xfId="49"/>
-    <cellStyle name="60% - 輔色1" xfId="50"/>
+    <cellStyle name="60% - 輔色1" xfId="47"/>
+    <cellStyle name="40% - 輔色3" xfId="48"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="49" builtinId="43"/>
+    <cellStyle name="20% - 輔色5" xfId="50"/>
     <cellStyle name="强调文字颜色 5" xfId="51" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="52" builtinId="47"/>
-    <cellStyle name="合計" xfId="53"/>
-    <cellStyle name="20% - 輔色6" xfId="54"/>
-    <cellStyle name="40% - 輔色4" xfId="55"/>
-    <cellStyle name="60% - 輔色2" xfId="56"/>
+    <cellStyle name="60% - 輔色2" xfId="52"/>
+    <cellStyle name="40% - 輔色4" xfId="53"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="54" builtinId="47"/>
+    <cellStyle name="合計" xfId="55"/>
+    <cellStyle name="20% - 輔色6" xfId="56"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="57" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="58" builtinId="49"/>
-    <cellStyle name="40% - 輔色5" xfId="59"/>
-    <cellStyle name="60% - 輔色3" xfId="60"/>
+    <cellStyle name="60% - 輔色3" xfId="59"/>
+    <cellStyle name="40% - 輔色5" xfId="60"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="61" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="62" builtinId="52"/>
     <cellStyle name="20% - 輔色1" xfId="63"/>
@@ -3474,8 +3493,8 @@
   <sheetPr/>
   <dimension ref="A1:F256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>

--- a/dr/protected/commands/template/m_template_iaib.xlsx
+++ b/dr/protected/commands/template/m_template_iaib.xlsx
@@ -1558,11 +1558,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="45">
@@ -1670,7 +1670,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1682,97 +1709,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1786,6 +1724,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1796,6 +1769,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1816,6 +1805,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1825,24 +1822,27 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1915,13 +1915,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1933,13 +1939,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1951,13 +1957,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1969,25 +1975,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2005,13 +2101,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
+        <fgColor indexed="30"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2023,61 +2143,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2089,79 +2155,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="11"/>
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2179,13 +2185,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2279,6 +2279,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2294,26 +2303,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2321,10 +2315,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4"/>
+        <color indexed="62"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2353,26 +2347,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2390,9 +2364,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color indexed="52"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2416,232 +2416,232 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="37" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2664,10 +2664,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="68" applyFont="1" applyFill="1">
@@ -2685,7 +2685,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2703,10 +2703,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2724,7 +2724,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2733,10 +2733,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2748,19 +2748,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2775,10 +2775,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="9" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2787,10 +2787,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2805,10 +2805,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="68" applyFont="1" applyFill="1" applyBorder="1">
@@ -2820,10 +2820,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="11" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -2841,10 +2841,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2859,10 +2859,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2871,22 +2871,22 @@
     <xf numFmtId="178" fontId="11" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1">
@@ -2898,10 +2898,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2925,19 +2925,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2949,10 +2949,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2961,13 +2961,13 @@
     <xf numFmtId="178" fontId="15" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2976,13 +2976,13 @@
     <xf numFmtId="178" fontId="11" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2994,10 +2994,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3009,16 +3009,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3027,19 +3027,19 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyFont="1" applyFill="1" applyBorder="1">
@@ -3051,19 +3051,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3074,10 +3074,10 @@
     <cellStyle name="输入" xfId="3" builtinId="20"/>
     <cellStyle name="货币" xfId="4" builtinId="4"/>
     <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="差" xfId="6" builtinId="27"/>
-    <cellStyle name="40% - 輔色2" xfId="7"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
-    <cellStyle name="20% - 輔色4" xfId="9"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="20% - 輔色4" xfId="7"/>
+    <cellStyle name="差" xfId="8" builtinId="27"/>
+    <cellStyle name="40% - 輔色2" xfId="9"/>
     <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
     <cellStyle name="超链接" xfId="12" builtinId="8"/>
@@ -3109,26 +3109,26 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="38" builtinId="31"/>
     <cellStyle name="20% - 輔色2" xfId="39"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 輔色1" xfId="41"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
-    <cellStyle name="20% - 輔色3" xfId="43"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="20% - 輔色3" xfId="42"/>
+    <cellStyle name="40% - 輔色1" xfId="43"/>
     <cellStyle name="强调文字颜色 3" xfId="44" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="45" builtinId="41"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="60% - 輔色1" xfId="47"/>
-    <cellStyle name="40% - 輔色3" xfId="48"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="49" builtinId="43"/>
-    <cellStyle name="20% - 輔色5" xfId="50"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
+    <cellStyle name="20% - 輔色5" xfId="48"/>
+    <cellStyle name="40% - 輔色3" xfId="49"/>
+    <cellStyle name="60% - 輔色1" xfId="50"/>
     <cellStyle name="强调文字颜色 5" xfId="51" builtinId="45"/>
-    <cellStyle name="60% - 輔色2" xfId="52"/>
-    <cellStyle name="40% - 輔色4" xfId="53"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="54" builtinId="47"/>
-    <cellStyle name="合計" xfId="55"/>
-    <cellStyle name="20% - 輔色6" xfId="56"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="52" builtinId="47"/>
+    <cellStyle name="合計" xfId="53"/>
+    <cellStyle name="20% - 輔色6" xfId="54"/>
+    <cellStyle name="40% - 輔色4" xfId="55"/>
+    <cellStyle name="60% - 輔色2" xfId="56"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="57" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="58" builtinId="49"/>
-    <cellStyle name="60% - 輔色3" xfId="59"/>
-    <cellStyle name="40% - 輔色5" xfId="60"/>
+    <cellStyle name="40% - 輔色5" xfId="59"/>
+    <cellStyle name="60% - 輔色3" xfId="60"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="61" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="62" builtinId="52"/>
     <cellStyle name="20% - 輔色1" xfId="63"/>
@@ -3493,8 +3493,8 @@
   <sheetPr/>
   <dimension ref="A1:F256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -4338,9 +4338,9 @@
       </c>
       <c r="D81" s="44"/>
       <c r="E81" s="44"/>
-      <c r="F81" s="45">
+      <c r="F81" s="45" t="e">
         <f>SUM(F82:F134)</f>
-        <v>35</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="82" ht="24.95" customHeight="1" spans="1:6">
@@ -4874,9 +4874,9 @@
       <c r="C111" s="96"/>
       <c r="D111" s="97"/>
       <c r="E111" s="98"/>
-      <c r="F111" s="68">
+      <c r="F111" s="68" t="e">
         <f>SUM(E112:E125)/55*15</f>
-        <v>3.54545454545455</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="112" s="3" customFormat="1" ht="99" spans="1:6">
@@ -5023,9 +5023,9 @@
       <c r="D119" s="110" t="s">
         <v>164</v>
       </c>
-      <c r="E119" s="111">
-        <f>IF(C119&gt;0.2,3,IF(C119&gt;0.1,5,IF(C119&gt;=0,1,0)))</f>
-        <v>1</v>
+      <c r="E119" s="111" t="e">
+        <f>IF(B48/B78&gt;=0.1,IF(C119&gt;0.2,1,IF(C119&gt;0.1,3,IF(C119&gt;=0,1,5))),IF(C119&gt;0.2,3,IF(C119&gt;0.1,5,IF(C119&gt;=0,1,1))))</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F119" s="109"/>
     </row>

--- a/dr/protected/commands/template/m_template_iaib.xlsx
+++ b/dr/protected/commands/template/m_template_iaib.xlsx
@@ -1558,12 +1558,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="45">
     <font>
@@ -1670,6 +1670,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1680,6 +1686,13 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1697,20 +1710,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1724,36 +1746,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1769,22 +1764,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1839,10 +1818,31 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1915,61 +1915,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor indexed="36"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1993,25 +1939,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="36"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2029,7 +1993,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2041,73 +2095,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2137,19 +2131,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor indexed="30"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2161,13 +2143,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2185,7 +2167,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2279,15 +2279,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2303,22 +2294,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color indexed="62"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color indexed="62"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2347,17 +2333,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2368,15 +2357,6 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2393,6 +2373,26 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2416,232 +2416,232 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="37" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="38" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2664,10 +2664,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="68" applyFont="1" applyFill="1">
@@ -2685,7 +2685,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2703,10 +2703,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2724,7 +2724,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2733,34 +2733,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="6" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2775,28 +2775,28 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2805,28 +2805,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="68" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="2" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="11" fillId="2" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="11" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2841,16 +2841,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2859,34 +2859,34 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1">
@@ -2898,16 +2898,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="11" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2925,19 +2925,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2949,40 +2949,40 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2994,31 +2994,31 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="11" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3027,19 +3027,19 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyFont="1" applyFill="1" applyBorder="1">
@@ -3051,19 +3051,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3074,10 +3074,10 @@
     <cellStyle name="输入" xfId="3" builtinId="20"/>
     <cellStyle name="货币" xfId="4" builtinId="4"/>
     <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 輔色4" xfId="7"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="40% - 輔色2" xfId="9"/>
+    <cellStyle name="差" xfId="6" builtinId="27"/>
+    <cellStyle name="40% - 輔色2" xfId="7"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
+    <cellStyle name="20% - 輔色4" xfId="9"/>
     <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
     <cellStyle name="超链接" xfId="12" builtinId="8"/>
@@ -3109,26 +3109,26 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="38" builtinId="31"/>
     <cellStyle name="20% - 輔色2" xfId="39"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="20% - 輔色3" xfId="42"/>
-    <cellStyle name="40% - 輔色1" xfId="43"/>
+    <cellStyle name="40% - 輔色1" xfId="41"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
+    <cellStyle name="20% - 輔色3" xfId="43"/>
     <cellStyle name="强调文字颜色 3" xfId="44" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="45" builtinId="41"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
-    <cellStyle name="20% - 輔色5" xfId="48"/>
-    <cellStyle name="40% - 輔色3" xfId="49"/>
-    <cellStyle name="60% - 輔色1" xfId="50"/>
+    <cellStyle name="60% - 輔色1" xfId="47"/>
+    <cellStyle name="40% - 輔色3" xfId="48"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="49" builtinId="43"/>
+    <cellStyle name="20% - 輔色5" xfId="50"/>
     <cellStyle name="强调文字颜色 5" xfId="51" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="52" builtinId="47"/>
-    <cellStyle name="合計" xfId="53"/>
-    <cellStyle name="20% - 輔色6" xfId="54"/>
-    <cellStyle name="40% - 輔色4" xfId="55"/>
-    <cellStyle name="60% - 輔色2" xfId="56"/>
+    <cellStyle name="60% - 輔色2" xfId="52"/>
+    <cellStyle name="40% - 輔色4" xfId="53"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="54" builtinId="47"/>
+    <cellStyle name="合計" xfId="55"/>
+    <cellStyle name="20% - 輔色6" xfId="56"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="57" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="58" builtinId="49"/>
-    <cellStyle name="40% - 輔色5" xfId="59"/>
-    <cellStyle name="60% - 輔色3" xfId="60"/>
+    <cellStyle name="60% - 輔色3" xfId="59"/>
+    <cellStyle name="40% - 輔色5" xfId="60"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="61" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="62" builtinId="52"/>
     <cellStyle name="20% - 輔色1" xfId="63"/>
@@ -4338,9 +4338,9 @@
       </c>
       <c r="D81" s="44"/>
       <c r="E81" s="44"/>
-      <c r="F81" s="45" t="e">
+      <c r="F81" s="45">
         <f>SUM(F82:F134)</f>
-        <v>#DIV/0!</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" ht="24.95" customHeight="1" spans="1:6">
@@ -4874,9 +4874,9 @@
       <c r="C111" s="96"/>
       <c r="D111" s="97"/>
       <c r="E111" s="98"/>
-      <c r="F111" s="68" t="e">
+      <c r="F111" s="68">
         <f>SUM(E112:E125)/55*15</f>
-        <v>#DIV/0!</v>
+        <v>3.54545454545455</v>
       </c>
     </row>
     <row r="112" s="3" customFormat="1" ht="99" spans="1:6">
@@ -5023,9 +5023,9 @@
       <c r="D119" s="110" t="s">
         <v>164</v>
       </c>
-      <c r="E119" s="111" t="e">
-        <f>IF(B48/B78&gt;=0.1,IF(C119&gt;0.2,1,IF(C119&gt;0.1,3,IF(C119&gt;=0,1,5))),IF(C119&gt;0.2,3,IF(C119&gt;0.1,5,IF(C119&gt;=0,1,1))))</f>
-        <v>#DIV/0!</v>
+      <c r="E119" s="111">
+        <f>IF(B48/IF(B78=0,10000,B78)&lt;0.1,IF(C119&gt;0.2,3,IF(C119&gt;0.1,5,IF(C119&gt;=0,1,5))),IF(C119&gt;0.2,1,IF(C119&gt;0.1,3,IF(C119&gt;=0,5,1))))</f>
+        <v>1</v>
       </c>
       <c r="F119" s="109"/>
     </row>

--- a/dr/protected/commands/template/m_template_iaib.xlsx
+++ b/dr/protected/commands/template/m_template_iaib.xlsx
@@ -1,25 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IT\Documents\GitHub2\Daily-Report\dr\protected\commands\template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9AA473-4503-48BE-9B91-42D3AC70562D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9444"/>
+    <workbookView xWindow="5475" yWindow="645" windowWidth="22155" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A20" authorId="0">
+    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -33,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A24" authorId="0">
+    <comment ref="A24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -46,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A28" authorId="0">
+    <comment ref="A28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -60,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A51" authorId="0">
+    <comment ref="A51" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -74,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A74" authorId="0">
+    <comment ref="A74" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1427,17 +1443,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="0.0000_ "/>
+    <numFmt numFmtId="170" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1512,157 +1524,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="新細明體"/>
@@ -1681,7 +1542,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1718,194 +1579,8 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1993,253 +1668,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2252,396 +1685,361 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2657,13 +2055,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2" descr="1627443512"/>
+        <xdr:cNvPr id="3" name="图片 2" descr="1627443512">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2964,1991 +2368,1991 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M118" sqref="M118"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="33.5" customWidth="1"/>
-    <col min="2" max="2" width="42.8796296296296" style="3" customWidth="1"/>
+    <col min="2" max="2" width="42.875" style="3" customWidth="1"/>
     <col min="3" max="3" width="17.75" style="4" customWidth="1"/>
-    <col min="4" max="4" width="22.8796296296296" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.6296296296296" customWidth="1"/>
+    <col min="4" max="4" width="22.875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
     <col min="6" max="6" width="10.75" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="52.5" customHeight="1" spans="1:6">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
-    </row>
-    <row r="2" ht="33.75" customHeight="1" spans="1:6">
-      <c r="A2" s="12" t="s">
+    <row r="1" spans="1:6" ht="52.5" customHeight="1">
+      <c r="A1" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="99"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A2" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="103"/>
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="18">
-        <v>0</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A4" s="17" t="s">
+      <c r="B3" s="13">
+        <v>0</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="18">
-        <v>0</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A5" s="17" t="s">
+      <c r="B4" s="13">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="18">
-        <v>0</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A6" s="17" t="s">
+      <c r="B5" s="13">
+        <v>0</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="18">
-        <v>0</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A7" s="17" t="s">
+      <c r="B6" s="13">
+        <v>0</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="18">
-        <v>0</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A8" s="17" t="s">
+      <c r="B7" s="13">
+        <v>0</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="18">
-        <v>0</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A9" s="17" t="s">
+      <c r="B8" s="13">
+        <v>0</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="18">
-        <v>0</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A10" s="17" t="s">
+      <c r="B9" s="13">
+        <v>0</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="18">
-        <v>0</v>
-      </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A11" s="17" t="s">
+      <c r="B10" s="13">
+        <v>0</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="18">
-        <v>0</v>
-      </c>
-      <c r="C11" s="23" t="s">
+      <c r="B11" s="13">
+        <v>0</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A12" s="17" t="s">
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="18">
-        <v>0</v>
-      </c>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="13">
+        <v>0</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="22"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A13" s="17" t="s">
+      <c r="D12" s="15"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="18">
-        <v>0</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="22"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A14" s="17" t="s">
+      <c r="B13" s="13">
+        <v>0</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="18">
-        <v>0</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="22"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A15" s="17" t="s">
+      <c r="B14" s="13">
+        <v>0</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="18">
-        <v>0</v>
-      </c>
-      <c r="C15" s="23" t="s">
+      <c r="B15" s="13">
+        <v>0</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="22"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A16" s="17" t="s">
+      <c r="D15" s="15"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="18">
-        <v>0</v>
-      </c>
-      <c r="C16" s="23" t="s">
+      <c r="B16" s="13">
+        <v>0</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="22"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A17" s="17" t="s">
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A17" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="18">
-        <v>0</v>
-      </c>
-      <c r="C17" s="23" t="s">
+      <c r="B17" s="13">
+        <v>0</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="22"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A18" s="17" t="s">
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A18" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="18">
-        <v>0</v>
-      </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="22"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A19" s="17" t="s">
+      <c r="B18" s="13">
+        <v>0</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A19" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="18">
-        <v>0</v>
-      </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="22"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A20" s="17" t="s">
+      <c r="B19" s="13">
+        <v>0</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A20" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="18">
-        <v>0</v>
-      </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="22"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A21" s="17" t="s">
+      <c r="B20" s="13">
+        <v>0</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A21" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="18">
-        <v>0</v>
-      </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="22"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A22" s="17" t="s">
+      <c r="B21" s="13">
+        <v>0</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A22" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="18">
-        <v>0</v>
-      </c>
-      <c r="C22" s="23" t="s">
+      <c r="B22" s="13">
+        <v>0</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="22"/>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A23" s="17" t="s">
+      <c r="D22" s="15"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
+    </row>
+    <row r="23" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A23" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="18">
-        <v>0</v>
-      </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="22"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A24" s="17" t="s">
+      <c r="B23" s="13">
+        <v>0</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A24" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="18">
-        <v>0</v>
-      </c>
-      <c r="C24" s="23" t="s">
+      <c r="B24" s="13">
+        <v>0</v>
+      </c>
+      <c r="C24" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="22"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A25" s="17" t="s">
+      <c r="D24" s="15"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="17"/>
+    </row>
+    <row r="25" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A25" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="18">
-        <v>0</v>
-      </c>
-      <c r="C25" s="23" t="s">
+      <c r="B25" s="13">
+        <v>0</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="22"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A26" s="17" t="s">
+      <c r="D25" s="15"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="17"/>
+    </row>
+    <row r="26" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A26" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="18">
-        <v>0</v>
-      </c>
-      <c r="C26" s="23" t="s">
+      <c r="B26" s="13">
+        <v>0</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="22"/>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A27" s="17" t="s">
+      <c r="D26" s="15"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="17"/>
+    </row>
+    <row r="27" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A27" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="18">
-        <v>0</v>
-      </c>
-      <c r="C27" s="23" t="s">
+      <c r="B27" s="13">
+        <v>0</v>
+      </c>
+      <c r="C27" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="22"/>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A28" s="17" t="s">
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A28" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="18">
-        <v>0</v>
-      </c>
-      <c r="C28" s="23" t="s">
+      <c r="B28" s="13">
+        <v>0</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="22"/>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A29" s="17" t="s">
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A29" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="18">
-        <v>0</v>
-      </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="22"/>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18">
-        <v>0</v>
-      </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="22"/>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A31" s="17" t="s">
+      <c r="B29" s="13">
+        <v>0</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="17"/>
+    </row>
+    <row r="30" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13">
+        <v>0</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A31" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="18">
-        <v>0</v>
-      </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="22"/>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A32" s="17" t="s">
+      <c r="B31" s="13">
+        <v>0</v>
+      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="17"/>
+    </row>
+    <row r="32" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A32" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="18">
-        <v>0</v>
-      </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="22"/>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A33" s="17" t="s">
+      <c r="B32" s="13">
+        <v>0</v>
+      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="17"/>
+    </row>
+    <row r="33" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A33" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="18">
-        <v>0</v>
-      </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="22"/>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A34" s="17" t="s">
+      <c r="B33" s="13">
+        <v>0</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="17"/>
+    </row>
+    <row r="34" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A34" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="18">
-        <v>0</v>
-      </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="22"/>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A35" s="17" t="s">
+      <c r="B34" s="13">
+        <v>0</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="17"/>
+    </row>
+    <row r="35" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A35" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="18">
-        <v>0</v>
-      </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="22"/>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A36" s="17"/>
-      <c r="B36" s="18">
-        <v>0</v>
-      </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="22"/>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A37" s="17" t="s">
+      <c r="B35" s="13">
+        <v>0</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="17"/>
+    </row>
+    <row r="36" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A36" s="12"/>
+      <c r="B36" s="13">
+        <v>0</v>
+      </c>
+      <c r="C36" s="18"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="17"/>
+    </row>
+    <row r="37" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A37" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="18">
-        <v>0</v>
-      </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="22"/>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A38" s="17" t="s">
+      <c r="B37" s="13">
+        <v>0</v>
+      </c>
+      <c r="C37" s="18"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="17"/>
+    </row>
+    <row r="38" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A38" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="18">
-        <v>0</v>
-      </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="22"/>
-    </row>
-    <row r="39" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A39" s="17" t="s">
+      <c r="B38" s="13">
+        <v>0</v>
+      </c>
+      <c r="C38" s="18"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="17"/>
+    </row>
+    <row r="39" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A39" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="18">
-        <v>0</v>
-      </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="22"/>
-    </row>
-    <row r="40" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A40" s="17"/>
-      <c r="B40" s="18">
-        <v>0</v>
-      </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="22"/>
-    </row>
-    <row r="41" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A41" s="17" t="s">
+      <c r="B39" s="13">
+        <v>0</v>
+      </c>
+      <c r="C39" s="18"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="17"/>
+    </row>
+    <row r="40" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A40" s="12"/>
+      <c r="B40" s="13">
+        <v>0</v>
+      </c>
+      <c r="C40" s="18"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="17"/>
+    </row>
+    <row r="41" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A41" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="18">
-        <v>0</v>
-      </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="22"/>
-    </row>
-    <row r="42" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A42" s="17" t="s">
+      <c r="B41" s="13">
+        <v>0</v>
+      </c>
+      <c r="C41" s="18"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="17"/>
+    </row>
+    <row r="42" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A42" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="18">
-        <v>0</v>
-      </c>
-      <c r="C42" s="23"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="22"/>
-    </row>
-    <row r="43" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A43" s="17" t="s">
+      <c r="B42" s="13">
+        <v>0</v>
+      </c>
+      <c r="C42" s="18"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="17"/>
+    </row>
+    <row r="43" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A43" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="18">
-        <v>0</v>
-      </c>
-      <c r="C43" s="23" t="s">
+      <c r="B43" s="13">
+        <v>0</v>
+      </c>
+      <c r="C43" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D43" s="20"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="22"/>
-    </row>
-    <row r="44" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A44" s="17" t="s">
+      <c r="D43" s="15"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="17"/>
+    </row>
+    <row r="44" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A44" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="18">
-        <v>0</v>
-      </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="22"/>
-    </row>
-    <row r="45" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A45" s="17" t="s">
+      <c r="B44" s="13">
+        <v>0</v>
+      </c>
+      <c r="C44" s="18"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="17"/>
+    </row>
+    <row r="45" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A45" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="18">
-        <v>0</v>
-      </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="22"/>
-    </row>
-    <row r="46" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A46" s="17" t="s">
+      <c r="B45" s="13">
+        <v>0</v>
+      </c>
+      <c r="C45" s="18"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="17"/>
+    </row>
+    <row r="46" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A46" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="18">
-        <v>0</v>
-      </c>
-      <c r="C46" s="23"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="22"/>
-    </row>
-    <row r="47" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A47" s="17" t="s">
+      <c r="B46" s="13">
+        <v>0</v>
+      </c>
+      <c r="C46" s="18"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="17"/>
+    </row>
+    <row r="47" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A47" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B47" s="18">
-        <v>0</v>
-      </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="22"/>
-    </row>
-    <row r="48" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A48" s="17" t="s">
+      <c r="B47" s="13">
+        <v>0</v>
+      </c>
+      <c r="C47" s="18"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="17"/>
+    </row>
+    <row r="48" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A48" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="18">
-        <v>0</v>
-      </c>
-      <c r="C48" s="23"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="22"/>
-    </row>
-    <row r="49" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A49" s="17" t="s">
+      <c r="B48" s="13">
+        <v>0</v>
+      </c>
+      <c r="C48" s="18"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="17"/>
+    </row>
+    <row r="49" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A49" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B49" s="18">
-        <v>0</v>
-      </c>
-      <c r="C49" s="23"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="22"/>
-    </row>
-    <row r="50" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A50" s="17" t="s">
+      <c r="B49" s="13">
+        <v>0</v>
+      </c>
+      <c r="C49" s="18"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="17"/>
+    </row>
+    <row r="50" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A50" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="18">
-        <v>0</v>
-      </c>
-      <c r="C50" s="23"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="22"/>
-    </row>
-    <row r="51" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A51" s="17" t="s">
+      <c r="B50" s="13">
+        <v>0</v>
+      </c>
+      <c r="C50" s="18"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="17"/>
+    </row>
+    <row r="51" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A51" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B51" s="18">
-        <v>0</v>
-      </c>
-      <c r="C51" s="23"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="22"/>
-    </row>
-    <row r="52" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A52" s="17" t="s">
+      <c r="B51" s="13">
+        <v>0</v>
+      </c>
+      <c r="C51" s="18"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="17"/>
+    </row>
+    <row r="52" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A52" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B52" s="18">
-        <v>0</v>
-      </c>
-      <c r="C52" s="23"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="22"/>
-    </row>
-    <row r="53" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A53" s="17"/>
-      <c r="B53" s="18">
-        <v>0</v>
-      </c>
-      <c r="C53" s="23"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="22"/>
-    </row>
-    <row r="54" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A54" s="17" t="s">
+      <c r="B52" s="13">
+        <v>0</v>
+      </c>
+      <c r="C52" s="18"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="17"/>
+    </row>
+    <row r="53" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A53" s="12"/>
+      <c r="B53" s="13">
+        <v>0</v>
+      </c>
+      <c r="C53" s="18"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="17"/>
+    </row>
+    <row r="54" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A54" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="18">
-        <v>0</v>
-      </c>
-      <c r="C54" s="23"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="22"/>
-    </row>
-    <row r="55" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A55" s="17" t="s">
+      <c r="B54" s="13">
+        <v>0</v>
+      </c>
+      <c r="C54" s="18"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="17"/>
+    </row>
+    <row r="55" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A55" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B55" s="18">
-        <v>0</v>
-      </c>
-      <c r="C55" s="23"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="22"/>
-    </row>
-    <row r="56" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A56" s="17" t="s">
+      <c r="B55" s="13">
+        <v>0</v>
+      </c>
+      <c r="C55" s="18"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="17"/>
+    </row>
+    <row r="56" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A56" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B56" s="18">
-        <v>0</v>
-      </c>
-      <c r="C56" s="23"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="22"/>
-    </row>
-    <row r="57" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A57" s="17" t="s">
+      <c r="B56" s="13">
+        <v>0</v>
+      </c>
+      <c r="C56" s="18"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="17"/>
+    </row>
+    <row r="57" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A57" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="18">
-        <v>0</v>
-      </c>
-      <c r="C57" s="23"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="22"/>
-    </row>
-    <row r="58" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A58" s="17" t="s">
+      <c r="B57" s="13">
+        <v>0</v>
+      </c>
+      <c r="C57" s="18"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="17"/>
+    </row>
+    <row r="58" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A58" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B58" s="18">
-        <v>0</v>
-      </c>
-      <c r="C58" s="23"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="22"/>
-    </row>
-    <row r="59" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A59" s="17" t="s">
+      <c r="B58" s="13">
+        <v>0</v>
+      </c>
+      <c r="C58" s="18"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="17"/>
+    </row>
+    <row r="59" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A59" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B59" s="18">
-        <v>0</v>
-      </c>
-      <c r="C59" s="23"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="22"/>
-    </row>
-    <row r="60" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A60" s="17" t="s">
+      <c r="B59" s="13">
+        <v>0</v>
+      </c>
+      <c r="C59" s="18"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="17"/>
+    </row>
+    <row r="60" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A60" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B60" s="18">
-        <v>0</v>
-      </c>
-      <c r="C60" s="23"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="22"/>
-    </row>
-    <row r="61" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A61" s="17" t="s">
+      <c r="B60" s="13">
+        <v>0</v>
+      </c>
+      <c r="C60" s="18"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="17"/>
+    </row>
+    <row r="61" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A61" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B61" s="18">
-        <v>0</v>
-      </c>
-      <c r="C61" s="23"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="22"/>
-    </row>
-    <row r="62" s="1" customFormat="1" ht="29.25" customHeight="1" spans="1:6">
-      <c r="A62" s="24" t="s">
+      <c r="B61" s="13">
+        <v>0</v>
+      </c>
+      <c r="C61" s="18"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="17"/>
+    </row>
+    <row r="62" spans="1:6" s="1" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A62" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B62" s="18">
-        <v>0</v>
-      </c>
-      <c r="C62" s="23"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="22"/>
-    </row>
-    <row r="63" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A63" s="17"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="22"/>
-    </row>
-    <row r="64" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A64" s="17" t="s">
+      <c r="B62" s="13">
+        <v>0</v>
+      </c>
+      <c r="C62" s="18"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="17"/>
+    </row>
+    <row r="63" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A63" s="12"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="17"/>
+    </row>
+    <row r="64" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A64" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="18">
-        <v>0</v>
-      </c>
-      <c r="C64" s="23"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="22"/>
-    </row>
-    <row r="65" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A65" s="17" t="s">
+      <c r="B64" s="13">
+        <v>0</v>
+      </c>
+      <c r="C64" s="18"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="17"/>
+    </row>
+    <row r="65" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A65" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="18">
-        <v>0</v>
-      </c>
-      <c r="C65" s="23"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="22"/>
-    </row>
-    <row r="66" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A66" s="17" t="s">
+      <c r="B65" s="13">
+        <v>0</v>
+      </c>
+      <c r="C65" s="18"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="17"/>
+    </row>
+    <row r="66" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A66" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B66" s="18">
-        <v>0</v>
-      </c>
-      <c r="C66" s="23"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="22"/>
-    </row>
-    <row r="67" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A67" s="17" t="s">
+      <c r="B66" s="13">
+        <v>0</v>
+      </c>
+      <c r="C66" s="18"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="17"/>
+    </row>
+    <row r="67" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A67" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B67" s="18">
-        <v>0</v>
-      </c>
-      <c r="C67" s="23"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="22"/>
-    </row>
-    <row r="68" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A68" s="17" t="s">
+      <c r="B67" s="13">
+        <v>0</v>
+      </c>
+      <c r="C67" s="18"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="17"/>
+    </row>
+    <row r="68" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A68" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B68" s="18">
-        <v>0</v>
-      </c>
-      <c r="C68" s="23"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="22"/>
-    </row>
-    <row r="69" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A69" s="17" t="s">
+      <c r="B68" s="13">
+        <v>0</v>
+      </c>
+      <c r="C68" s="18"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="17"/>
+    </row>
+    <row r="69" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A69" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B69" s="18">
-        <v>0</v>
-      </c>
-      <c r="C69" s="23"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="22"/>
-    </row>
-    <row r="70" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A70" s="17" t="s">
+      <c r="B69" s="13">
+        <v>0</v>
+      </c>
+      <c r="C69" s="18"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="17"/>
+    </row>
+    <row r="70" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A70" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B70" s="18">
-        <v>0</v>
-      </c>
-      <c r="C70" s="23"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="22"/>
-    </row>
-    <row r="71" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A71" s="17" t="s">
+      <c r="B70" s="13">
+        <v>0</v>
+      </c>
+      <c r="C70" s="18"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="17"/>
+    </row>
+    <row r="71" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A71" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B71" s="18">
-        <v>0</v>
-      </c>
-      <c r="C71" s="23"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="22"/>
-    </row>
-    <row r="72" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A72" s="17" t="s">
+      <c r="B71" s="13">
+        <v>0</v>
+      </c>
+      <c r="C71" s="18"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="17"/>
+    </row>
+    <row r="72" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A72" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B72" s="18">
-        <v>0</v>
-      </c>
-      <c r="C72" s="23"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="22"/>
-    </row>
-    <row r="73" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A73" s="17" t="s">
+      <c r="B72" s="13">
+        <v>0</v>
+      </c>
+      <c r="C72" s="18"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="17"/>
+    </row>
+    <row r="73" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A73" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B73" s="18">
-        <v>0</v>
-      </c>
-      <c r="C73" s="23"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="22"/>
-    </row>
-    <row r="74" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A74" s="17" t="s">
+      <c r="B73" s="13">
+        <v>0</v>
+      </c>
+      <c r="C73" s="18"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="17"/>
+    </row>
+    <row r="74" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A74" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B74" s="18">
-        <v>0</v>
-      </c>
-      <c r="C74" s="23"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="22"/>
-    </row>
-    <row r="75" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A75" s="17" t="s">
+      <c r="B74" s="13">
+        <v>0</v>
+      </c>
+      <c r="C74" s="18"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="17"/>
+    </row>
+    <row r="75" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A75" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B75" s="18">
-        <v>0</v>
-      </c>
-      <c r="C75" s="23"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="22"/>
-    </row>
-    <row r="76" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A76" s="17" t="s">
+      <c r="B75" s="13">
+        <v>0</v>
+      </c>
+      <c r="C75" s="18"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="17"/>
+    </row>
+    <row r="76" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A76" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B76" s="18">
-        <v>0</v>
-      </c>
-      <c r="C76" s="23"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="22"/>
-    </row>
-    <row r="77" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A77" s="17" t="s">
+      <c r="B76" s="13">
+        <v>0</v>
+      </c>
+      <c r="C76" s="18"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="17"/>
+    </row>
+    <row r="77" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A77" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B77" s="18">
-        <v>0</v>
-      </c>
-      <c r="C77" s="23"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="22"/>
-    </row>
-    <row r="78" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A78" s="17" t="s">
+      <c r="B77" s="13">
+        <v>0</v>
+      </c>
+      <c r="C77" s="18"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="17"/>
+    </row>
+    <row r="78" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A78" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B78" s="18">
+      <c r="B78" s="13">
         <v>1</v>
       </c>
-      <c r="C78" s="23"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="22"/>
-    </row>
-    <row r="79" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A79" s="17"/>
-      <c r="B79" s="25"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="22"/>
-    </row>
-    <row r="80" ht="21.75" customHeight="1" spans="1:6">
-      <c r="A80" s="26"/>
-      <c r="B80" s="27"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="30"/>
-      <c r="F80" s="31"/>
-    </row>
-    <row r="81" ht="21.75" customHeight="1" spans="1:6">
-      <c r="A81" s="32"/>
-      <c r="B81" s="31"/>
-      <c r="C81" s="33" t="s">
+      <c r="C78" s="18"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="17"/>
+    </row>
+    <row r="79" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A79" s="12"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="17"/>
+    </row>
+    <row r="80" spans="1:6" ht="21.75" customHeight="1">
+      <c r="A80" s="21"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="26"/>
+    </row>
+    <row r="81" spans="1:6" ht="21.75" customHeight="1">
+      <c r="A81" s="27"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="104" t="s">
         <v>87</v>
       </c>
-      <c r="D81" s="34"/>
-      <c r="E81" s="34"/>
-      <c r="F81" s="35">
+      <c r="D81" s="105"/>
+      <c r="E81" s="105"/>
+      <c r="F81" s="28">
         <f>SUM(F82:F134)</f>
-        <v>33.6363636363636</v>
-      </c>
-    </row>
-    <row r="82" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A82" s="36" t="s">
+        <v>33.636363636363633</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A82" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="B82" s="13"/>
-      <c r="C82" s="37"/>
-      <c r="D82" s="38"/>
-      <c r="E82" s="39"/>
-      <c r="F82" s="40">
+      <c r="B82" s="8"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="32"/>
+      <c r="F82" s="33">
         <f>SUM(E83:E93)/55*30</f>
-        <v>11.4545454545455</v>
-      </c>
-    </row>
-    <row r="83" customFormat="1" ht="82.5" customHeight="1" spans="1:6">
-      <c r="A83" s="41" t="s">
+        <v>11.454545454545455</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="82.5" customHeight="1">
+      <c r="A83" s="106" t="s">
         <v>89</v>
       </c>
-      <c r="B83" s="42" t="s">
+      <c r="B83" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="C83" s="43">
+      <c r="C83" s="35">
         <f>(B8-B7)/ABS(IF(B7=0,1,B7))</f>
         <v>0</v>
       </c>
-      <c r="D83" s="111" t="s">
+      <c r="D83" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="E83" s="45">
+      <c r="E83" s="36">
         <f>IF(C83&gt;0.2,5,IF(C83&gt;0.1,4,IF(C83&gt;0,3,IF(C83&gt;-0.1,2,IF(C83&gt;-0.2,1,0)))))</f>
         <v>2</v>
       </c>
-      <c r="F83" s="46"/>
-    </row>
-    <row r="84" customFormat="1" ht="82.5" customHeight="1" spans="1:6">
-      <c r="A84" s="41"/>
-      <c r="B84" s="42" t="s">
+      <c r="F83" s="37"/>
+    </row>
+    <row r="84" spans="1:6" ht="82.5" customHeight="1">
+      <c r="A84" s="106"/>
+      <c r="B84" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="C84" s="43">
+      <c r="C84" s="35">
         <f>(B8-B9)/ABS(IF(B9=0,1,B9))</f>
         <v>0</v>
       </c>
-      <c r="D84" s="111" t="s">
+      <c r="D84" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="E84" s="45">
+      <c r="E84" s="36">
         <f>IF(C84&gt;0.2,5,IF(C84&gt;0.1,4,IF(C84&gt;0,3,IF(C84&gt;-0.1,2,IF(C84&gt;-0.2,1,0)))))</f>
         <v>2</v>
       </c>
-      <c r="F84" s="46"/>
-    </row>
-    <row r="85" customFormat="1" ht="82.5" customHeight="1" spans="1:6">
-      <c r="A85" s="41"/>
-      <c r="B85" s="47" t="s">
+      <c r="F84" s="37"/>
+    </row>
+    <row r="85" spans="1:6" ht="82.5" customHeight="1">
+      <c r="A85" s="106"/>
+      <c r="B85" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="C85" s="48">
+      <c r="C85" s="39">
         <f>(B32-B31)/ABS(IF(B31=0,1,B31))</f>
         <v>0</v>
       </c>
-      <c r="D85" s="112" t="s">
+      <c r="D85" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="E85" s="45">
+      <c r="E85" s="36">
         <f>IF(C85&gt;0.4,5,IF(C85&gt;0.2,4,IF(C85&gt;0,3,IF(C85&gt;-0.2,2,IF(C85&gt;-0.4,1,0)))))</f>
         <v>2</v>
       </c>
-      <c r="F85" s="50"/>
-    </row>
-    <row r="86" customFormat="1" ht="82.5" customHeight="1" spans="1:6">
-      <c r="A86" s="41"/>
-      <c r="B86" s="47" t="s">
+      <c r="F85" s="41"/>
+    </row>
+    <row r="86" spans="1:6" ht="82.5" customHeight="1">
+      <c r="A86" s="106"/>
+      <c r="B86" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="C86" s="48">
+      <c r="C86" s="39">
         <f>(B32-B35)/ABS(IF(B35=0,1,B35))</f>
         <v>0</v>
       </c>
-      <c r="D86" s="112" t="s">
+      <c r="D86" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="E86" s="45">
+      <c r="E86" s="36">
         <f>IF(C86&gt;0.4,5,IF(C86&gt;0.2,4,IF(C86&gt;0,3,IF(C86&gt;-0.2,2,IF(C86&gt;-0.4,1,0)))))</f>
         <v>2</v>
       </c>
-      <c r="F86" s="50"/>
-    </row>
-    <row r="87" customFormat="1" ht="82.5" customHeight="1" spans="1:6">
-      <c r="A87" s="41"/>
-      <c r="B87" s="47" t="s">
+      <c r="F86" s="41"/>
+    </row>
+    <row r="87" spans="1:6" ht="82.5" customHeight="1">
+      <c r="A87" s="106"/>
+      <c r="B87" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="C87" s="48">
+      <c r="C87" s="39">
         <f>(B11-B10)/ABS(IF(B10=0,1,B10))</f>
         <v>0</v>
       </c>
-      <c r="D87" s="112" t="s">
+      <c r="D87" s="97" t="s">
         <v>97</v>
       </c>
-      <c r="E87" s="45">
+      <c r="E87" s="36">
         <f>IF(C87&gt;3,5,IF(C87&gt;1,4,IF(C87&gt;0,3,IF(C87&gt;-1,2,IF(C87&gt;-2,1,0)))))</f>
         <v>2</v>
       </c>
-      <c r="F87" s="50"/>
-    </row>
-    <row r="88" customFormat="1" ht="82.5" customHeight="1" spans="1:6">
-      <c r="A88" s="41"/>
-      <c r="B88" s="47" t="s">
+      <c r="F87" s="41"/>
+    </row>
+    <row r="88" spans="1:6" ht="82.5" customHeight="1">
+      <c r="A88" s="106"/>
+      <c r="B88" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="C88" s="48">
+      <c r="C88" s="39">
         <f>(B11-B12)/ABS(IF(B12=0,1,B12))</f>
         <v>0</v>
       </c>
-      <c r="D88" s="112" t="s">
+      <c r="D88" s="97" t="s">
         <v>97</v>
       </c>
-      <c r="E88" s="45">
+      <c r="E88" s="36">
         <f>IF(C88&gt;3,5,IF(C88&gt;1,4,IF(C88&gt;0,3,IF(C88&gt;-1,2,IF(C88&gt;-2,1,0)))))</f>
         <v>2</v>
       </c>
-      <c r="F88" s="50"/>
-    </row>
-    <row r="89" customFormat="1" ht="82.5" customHeight="1" spans="1:6">
-      <c r="A89" s="41"/>
-      <c r="B89" s="47" t="s">
+      <c r="F88" s="41"/>
+    </row>
+    <row r="89" spans="1:6" ht="82.5" customHeight="1">
+      <c r="A89" s="106"/>
+      <c r="B89" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="C89" s="48">
+      <c r="C89" s="39">
         <f>(B16-B15)/ABS(IF(B15=0,1,B15))</f>
         <v>0</v>
       </c>
-      <c r="D89" s="111" t="s">
+      <c r="D89" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="E89" s="45">
+      <c r="E89" s="36">
         <f>IF(C89&gt;0.2,5,IF(C89&gt;0.1,4,IF(C89&gt;0,3,IF(C89&gt;-0.1,2,IF(C89&gt;-0.2,1,0)))))</f>
         <v>2</v>
       </c>
-      <c r="F89" s="50"/>
-    </row>
-    <row r="90" customFormat="1" ht="82.5" customHeight="1" spans="1:6">
-      <c r="A90" s="41"/>
-      <c r="B90" s="47" t="s">
+      <c r="F89" s="41"/>
+    </row>
+    <row r="90" spans="1:6" ht="82.5" customHeight="1">
+      <c r="A90" s="106"/>
+      <c r="B90" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="C90" s="48">
+      <c r="C90" s="39">
         <f>(B16-B17)/ABS(IF(B17=0,1,B17))</f>
         <v>0</v>
       </c>
-      <c r="D90" s="111" t="s">
+      <c r="D90" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="E90" s="45">
+      <c r="E90" s="36">
         <f>IF(C90&gt;0.2,5,IF(C90&gt;0.1,4,IF(C90&gt;0,3,IF(C90&gt;-0.1,2,IF(C90&gt;-0.2,1,0)))))</f>
         <v>2</v>
       </c>
-      <c r="F90" s="50"/>
-    </row>
-    <row r="91" customFormat="1" ht="115.5" customHeight="1" spans="1:6">
-      <c r="A91" s="51" t="s">
+      <c r="F90" s="41"/>
+    </row>
+    <row r="91" spans="1:6" ht="115.5" customHeight="1">
+      <c r="A91" s="107" t="s">
         <v>101</v>
       </c>
-      <c r="B91" s="47" t="s">
+      <c r="B91" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="C91" s="48">
+      <c r="C91" s="39">
         <f>(B13/IF(B14=0,1,B14))</f>
         <v>0</v>
       </c>
-      <c r="D91" s="49" t="s">
+      <c r="D91" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="E91" s="45">
+      <c r="E91" s="36">
         <f>IF(C91&gt;2.3,1,IF(C91&gt;1.5,3,IF(C91&gt;=1,5,IF(C91&gt;0.7,4,IF(C91&gt;0.4,2,IF(C91&gt;0.2,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="F91" s="50"/>
-    </row>
-    <row r="92" customFormat="1" ht="115.5" customHeight="1" spans="1:6">
-      <c r="A92" s="51"/>
-      <c r="B92" s="47" t="s">
+      <c r="F91" s="41"/>
+    </row>
+    <row r="92" spans="1:6" ht="115.5" customHeight="1">
+      <c r="A92" s="107"/>
+      <c r="B92" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="C92" s="48">
+      <c r="C92" s="39">
         <f>(B5/IF(B6=0,1,B6))</f>
         <v>0</v>
       </c>
-      <c r="D92" s="49" t="s">
+      <c r="D92" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="E92" s="45">
+      <c r="E92" s="36">
         <f>IF(C92&gt;2.3,1,IF(C92&gt;1.5,3,IF(C92&gt;=1,5,IF(C92&gt;0.7,4,IF(C92&gt;0.4,2,IF(C92&gt;0.2,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="F92" s="50"/>
-    </row>
-    <row r="93" customFormat="1" ht="82.5" customHeight="1" spans="1:6">
-      <c r="A93" s="52" t="s">
+      <c r="F92" s="41"/>
+    </row>
+    <row r="93" spans="1:6" ht="82.5" customHeight="1">
+      <c r="A93" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="B93" s="47" t="s">
+      <c r="B93" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C93" s="48">
+      <c r="C93" s="39">
         <f>(B19/IF(B4=0,1,B4))</f>
         <v>0</v>
       </c>
-      <c r="D93" s="49" t="s">
+      <c r="D93" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="E93" s="45">
+      <c r="E93" s="36">
         <f>IF(C93&gt;0.032,1,IF(C93&gt;0.024,2,IF(C93&gt;0.016,3,IF(C93&gt;0.008,4,IF(C93&gt;0,5,5)))))</f>
         <v>5</v>
       </c>
-      <c r="F93" s="50"/>
-    </row>
-    <row r="94" customFormat="1" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A94" s="53" t="s">
+      <c r="F93" s="41"/>
+    </row>
+    <row r="94" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A94" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="B94" s="54"/>
-      <c r="C94" s="55"/>
-      <c r="D94" s="56"/>
-      <c r="E94" s="57"/>
-      <c r="F94" s="58">
+      <c r="B94" s="44"/>
+      <c r="C94" s="45"/>
+      <c r="D94" s="46"/>
+      <c r="E94" s="47"/>
+      <c r="F94" s="48">
         <f>SUM(E95:F101)/25*20</f>
         <v>8</v>
       </c>
     </row>
-    <row r="95" customFormat="1" ht="99" customHeight="1" spans="1:6">
-      <c r="A95" s="59" t="s">
+    <row r="95" spans="1:6" ht="99" customHeight="1">
+      <c r="A95" s="108" t="s">
         <v>109</v>
       </c>
-      <c r="B95" s="60" t="s">
+      <c r="B95" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="C95" s="61">
+      <c r="C95" s="50">
         <f>(B20-30000)/30000</f>
         <v>-1</v>
       </c>
-      <c r="D95" s="62" t="s">
+      <c r="D95" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="E95" s="63">
+      <c r="E95" s="52">
         <f>IF(C95&gt;0.2,5,IF(C95&gt;0,4,IF(C95&gt;-0.1,3,IF(C95&gt;-0.2,2,IF(C95&gt;-0.3,1,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F95" s="64"/>
-    </row>
-    <row r="96" customFormat="1" ht="49.5" customHeight="1" spans="1:6">
-      <c r="A96" s="59"/>
-      <c r="B96" s="60" t="s">
+      <c r="F95" s="53"/>
+    </row>
+    <row r="96" spans="1:6" ht="49.5" customHeight="1">
+      <c r="A96" s="108"/>
+      <c r="B96" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="C96" s="61">
+      <c r="C96" s="50">
         <f>(B21-30000)/30000</f>
         <v>-1</v>
       </c>
-      <c r="D96" s="62" t="s">
+      <c r="D96" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="E96" s="63">
+      <c r="E96" s="52">
         <f>IF(C96&gt;0.7,5,IF(C96&gt;0.3,4,IF(C96&gt;0.1,3,0)))</f>
         <v>0</v>
       </c>
-      <c r="F96" s="64"/>
-    </row>
-    <row r="97" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
-      <c r="A97" s="59"/>
-      <c r="B97" s="60" t="s">
+      <c r="F96" s="53"/>
+    </row>
+    <row r="97" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A97" s="108"/>
+      <c r="B97" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="C97" s="65">
+      <c r="C97" s="54">
         <f>B21</f>
         <v>0</v>
       </c>
-      <c r="D97" s="62" t="s">
+      <c r="D97" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="E97" s="63" t="s">
+      <c r="E97" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="F97" s="64"/>
-    </row>
-    <row r="98" customFormat="1" ht="99" customHeight="1" spans="1:6">
-      <c r="A98" s="59" t="s">
+      <c r="F97" s="53"/>
+    </row>
+    <row r="98" spans="1:6" ht="99" customHeight="1">
+      <c r="A98" s="108" t="s">
         <v>117</v>
       </c>
-      <c r="B98" s="60" t="s">
+      <c r="B98" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="C98" s="61">
+      <c r="C98" s="50">
         <f>B25/IF(B5=0,1,B5)</f>
         <v>0</v>
       </c>
-      <c r="D98" s="62" t="s">
+      <c r="D98" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="E98" s="63">
+      <c r="E98" s="52">
         <f>IF(C98&gt;0.3,0,IF(C98&gt;0.25,1,IF(C98&gt;0.2,2,IF(C98&gt;0.15,3,IF(C98&gt;0.1,4,5)))))</f>
         <v>5</v>
       </c>
-      <c r="F98" s="64"/>
-    </row>
-    <row r="99" customFormat="1" ht="99" customHeight="1" spans="1:6">
-      <c r="A99" s="59"/>
-      <c r="B99" s="60" t="s">
+      <c r="F98" s="53"/>
+    </row>
+    <row r="99" spans="1:6" ht="99" customHeight="1">
+      <c r="A99" s="108"/>
+      <c r="B99" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="C99" s="61">
+      <c r="C99" s="50">
         <f>B26/IF(B6=0,1,B6)</f>
         <v>0</v>
       </c>
-      <c r="D99" s="62" t="s">
+      <c r="D99" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="E99" s="63">
+      <c r="E99" s="52">
         <f>IF(C99&gt;0.25,0,IF(C99&gt;0.2,1,IF(C99&gt;0.15,2,IF(C99&gt;0.1,3,IF(C99&gt;0.05,4,5)))))</f>
         <v>5</v>
       </c>
-      <c r="F99" s="64"/>
-    </row>
-    <row r="100" customFormat="1" ht="66" customHeight="1" spans="1:6">
-      <c r="A100" s="59" t="s">
+      <c r="F99" s="53"/>
+    </row>
+    <row r="100" spans="1:6" ht="66" customHeight="1">
+      <c r="A100" s="108" t="s">
         <v>122</v>
       </c>
-      <c r="B100" s="60" t="s">
+      <c r="B100" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="C100" s="66">
+      <c r="C100" s="55">
         <f>B37/IF(B68=0,1,B68)</f>
         <v>0</v>
       </c>
-      <c r="D100" s="67" t="s">
+      <c r="D100" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="E100" s="63">
+      <c r="E100" s="52">
         <f>IF(C100&gt;0.2,5,IF(C100&gt;0.1,3,IF(C100&gt;0.05,1,0)))</f>
         <v>0</v>
       </c>
-      <c r="F100" s="64"/>
-    </row>
-    <row r="101" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A101" s="59"/>
-      <c r="B101" s="60" t="s">
+      <c r="F100" s="53"/>
+    </row>
+    <row r="101" spans="1:6" ht="33" customHeight="1">
+      <c r="A101" s="108"/>
+      <c r="B101" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="C101" s="68">
+      <c r="C101" s="57">
         <f>B38/IF(B39=0,1,B39)</f>
         <v>0</v>
       </c>
-      <c r="D101" s="62" t="s">
+      <c r="D101" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="E101" s="63" t="s">
+      <c r="E101" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="F101" s="64"/>
-    </row>
-    <row r="102" customFormat="1" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A102" s="53" t="s">
+      <c r="F101" s="53"/>
+    </row>
+    <row r="102" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A102" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="B102" s="54"/>
-      <c r="C102" s="69"/>
-      <c r="D102" s="70"/>
-      <c r="E102" s="71"/>
-      <c r="F102" s="58">
+      <c r="B102" s="44"/>
+      <c r="C102" s="58"/>
+      <c r="D102" s="59"/>
+      <c r="E102" s="60"/>
+      <c r="F102" s="48">
         <f>SUM(E103:E110)/35*25</f>
-        <v>4.28571428571429</v>
-      </c>
-    </row>
-    <row r="103" customFormat="1" ht="99" customHeight="1" spans="1:6">
-      <c r="A103" s="72" t="s">
+        <v>4.2857142857142856</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="99" customHeight="1">
+      <c r="A103" s="109" t="s">
         <v>127</v>
       </c>
-      <c r="B103" s="73" t="s">
+      <c r="B103" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="C103" s="74">
+      <c r="C103" s="63">
         <f>(B5+B6-B25-B26-B27)/IF((B5+B6)=0,1,B5+B6)</f>
         <v>0</v>
       </c>
-      <c r="D103" s="75" t="s">
+      <c r="D103" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="E103" s="76">
+      <c r="E103" s="65">
         <f>IF(C103&gt;0.55,5,IF(C103&gt;0.5,4,IF(C103&gt;0.45,3,IF(C103&gt;0.4,2,IF(C103&gt;0.35,1,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F103" s="77"/>
-    </row>
-    <row r="104" customFormat="1" ht="99" customHeight="1" spans="1:6">
-      <c r="A104" s="72"/>
-      <c r="B104" s="73" t="s">
+      <c r="F103" s="66"/>
+    </row>
+    <row r="104" spans="1:6" ht="99" customHeight="1">
+      <c r="A104" s="109"/>
+      <c r="B104" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="C104" s="74">
+      <c r="C104" s="63">
         <f>B28/IF(B4=0,1,B4)</f>
         <v>0</v>
       </c>
-      <c r="D104" s="75" t="s">
+      <c r="D104" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="E104" s="76">
+      <c r="E104" s="65">
         <f>IF(C104&gt;0.35,1,IF(C104&gt;0.3,2,IF(C104&gt;0.28,3,IF(C104&gt;0.25,3,IF(C104&gt;0.2,5,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F104" s="77"/>
-    </row>
-    <row r="105" customFormat="1" ht="82.5" customHeight="1" spans="1:6">
-      <c r="A105" s="78" t="s">
+      <c r="F104" s="66"/>
+    </row>
+    <row r="105" spans="1:6" ht="82.5" customHeight="1">
+      <c r="A105" s="110" t="s">
         <v>132</v>
       </c>
-      <c r="B105" s="79" t="s">
+      <c r="B105" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="C105" s="74">
+      <c r="C105" s="63">
         <f>B76/IF(B4=0,1,B4)</f>
         <v>0</v>
       </c>
-      <c r="D105" s="75" t="s">
+      <c r="D105" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="E105" s="76">
+      <c r="E105" s="65">
         <f>IF(C105&gt;0.2,5,IF(C105&gt;0.15,4,IF(C105&gt;0.1,3,IF(C105&gt;0.05,2,1))))</f>
         <v>1</v>
       </c>
-      <c r="F105" s="77"/>
-    </row>
-    <row r="106" customFormat="1" ht="82.5" customHeight="1" spans="1:6">
-      <c r="A106" s="80"/>
-      <c r="B106" s="73" t="s">
+      <c r="F105" s="66"/>
+    </row>
+    <row r="106" spans="1:6" ht="82.5" customHeight="1">
+      <c r="A106" s="111"/>
+      <c r="B106" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="C106" s="74">
+      <c r="C106" s="63">
         <f>(B76-B75)/ABS(IF(B75=0,1,B75))</f>
         <v>0</v>
       </c>
-      <c r="D106" s="75" t="s">
+      <c r="D106" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="E106" s="76">
+      <c r="E106" s="65">
         <f>IF(C106&gt;=0.03,5,IF(C106&gt;=0.025,4,IF(C106&gt;=0.02,3,IF(C106&gt;=0.015,2,IF(C106&gt;=0.01,1,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F106" s="77"/>
-    </row>
-    <row r="107" customFormat="1" ht="82.5" customHeight="1" spans="1:6">
-      <c r="A107" s="81"/>
-      <c r="B107" s="73" t="s">
+      <c r="F106" s="66"/>
+    </row>
+    <row r="107" spans="1:6" ht="82.5" customHeight="1">
+      <c r="A107" s="112"/>
+      <c r="B107" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="C107" s="74">
+      <c r="C107" s="63">
         <f>(B76-B77)/ABS(IF(B77=0,1,B77))</f>
         <v>0</v>
       </c>
-      <c r="D107" s="75" t="s">
+      <c r="D107" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="E107" s="76">
+      <c r="E107" s="65">
         <f>IF(C107&gt;0.34,5,IF(C107&gt;0.25,4,IF(C107&gt;0.16,3,IF(C107&gt;0.08,2,IF(C107&gt;0,1,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F107" s="77"/>
-    </row>
-    <row r="108" customFormat="1" ht="82.5" customHeight="1" spans="1:6">
-      <c r="A108" s="72" t="s">
+      <c r="F107" s="66"/>
+    </row>
+    <row r="108" spans="1:6" ht="82.5" customHeight="1">
+      <c r="A108" s="109" t="s">
         <v>139</v>
       </c>
-      <c r="B108" s="73" t="s">
+      <c r="B108" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="C108" s="82">
+      <c r="C108" s="68">
         <f>B23/IF(B3=0,1,B3)</f>
         <v>0</v>
       </c>
-      <c r="D108" s="83" t="s">
+      <c r="D108" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="E108" s="76">
+      <c r="E108" s="65">
         <f>IF(C108&gt;1,5,IF(C108&gt;0.95,4,IF(C108&gt;0.9,3,IF(C108&gt;0.85,2,IF(C108&gt;0.8,1,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F108" s="77"/>
-    </row>
-    <row r="109" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
-      <c r="A109" s="72"/>
-      <c r="B109" s="73" t="s">
+      <c r="F108" s="66"/>
+    </row>
+    <row r="109" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A109" s="109"/>
+      <c r="B109" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="C109" s="84">
+      <c r="C109" s="70">
         <f>B29</f>
         <v>0</v>
       </c>
-      <c r="D109" s="83" t="s">
+      <c r="D109" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="E109" s="76" t="s">
+      <c r="E109" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="F109" s="77"/>
-    </row>
-    <row r="110" customFormat="1" ht="82.5" customHeight="1" spans="1:6">
-      <c r="A110" s="72" t="s">
+      <c r="F109" s="66"/>
+    </row>
+    <row r="110" spans="1:6" ht="82.5" customHeight="1">
+      <c r="A110" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="B110" s="73" t="s">
+      <c r="B110" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="C110" s="74">
+      <c r="C110" s="63">
         <f>B22/IF(B4=0,1,B4)</f>
         <v>0</v>
       </c>
-      <c r="D110" s="75" t="s">
+      <c r="D110" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="E110" s="76">
+      <c r="E110" s="65">
         <f>IF(C110&gt;0.7,0,IF(C110&gt;0.6,1,IF(C110&gt;0.5,2,IF(C110&gt;0.4,3,IF(C110&gt;0.3,4,5)))))</f>
         <v>5</v>
       </c>
-      <c r="F110" s="77"/>
-    </row>
-    <row r="111" customFormat="1" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A111" s="53" t="s">
+      <c r="F110" s="66"/>
+    </row>
+    <row r="111" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A111" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="B111" s="54"/>
-      <c r="C111" s="85"/>
-      <c r="D111" s="86"/>
-      <c r="E111" s="87"/>
-      <c r="F111" s="58">
+      <c r="B111" s="44"/>
+      <c r="C111" s="71"/>
+      <c r="D111" s="72"/>
+      <c r="E111" s="73"/>
+      <c r="F111" s="48">
         <f>SUM(E112:E125)/55*15</f>
-        <v>2.18181818181818</v>
-      </c>
-    </row>
-    <row r="112" s="2" customFormat="1" ht="99" customHeight="1" spans="1:6">
-      <c r="A112" s="88" t="s">
+        <v>2.1818181818181817</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" s="2" customFormat="1" ht="99" customHeight="1">
+      <c r="A112" s="74" t="s">
         <v>147</v>
       </c>
-      <c r="B112" s="89" t="s">
+      <c r="B112" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="C112" s="90">
+      <c r="C112" s="76">
         <f>B52/IF(B32=0,1,B32)</f>
         <v>0</v>
       </c>
-      <c r="D112" s="91" t="s">
+      <c r="D112" s="77" t="s">
         <v>149</v>
       </c>
-      <c r="E112" s="92">
+      <c r="E112" s="78">
         <f>IF(C112&gt;0.95,5,IF(C112&gt;0.9,4,IF(C112&gt;0.85,3,IF(C112&gt;0.8,2,IF(C112&gt;=0.75,1,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F112" s="93"/>
-    </row>
-    <row r="113" s="2" customFormat="1" ht="99" customHeight="1" spans="1:6">
-      <c r="A113" s="88" t="s">
+      <c r="F112" s="79"/>
+    </row>
+    <row r="113" spans="1:6" s="2" customFormat="1" ht="99" customHeight="1">
+      <c r="A113" s="113" t="s">
         <v>150</v>
       </c>
-      <c r="B113" s="89" t="s">
+      <c r="B113" s="75" t="s">
         <v>151</v>
       </c>
-      <c r="C113" s="90">
+      <c r="C113" s="76">
         <f>B57/IF(B56=0,1,B56)</f>
         <v>0</v>
       </c>
-      <c r="D113" s="91" t="s">
+      <c r="D113" s="77" t="s">
         <v>149</v>
       </c>
-      <c r="E113" s="92">
+      <c r="E113" s="78">
         <f>IF(C113&gt;0.95,5,IF(C113&gt;0.9,4,IF(C113&gt;0.85,3,IF(C113&gt;0.8,2,IF(C113&gt;=0.75,1,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F113" s="93"/>
-    </row>
-    <row r="114" s="2" customFormat="1" ht="99" customHeight="1" spans="1:6">
-      <c r="A114" s="88"/>
-      <c r="B114" s="89" t="s">
+      <c r="F113" s="79"/>
+    </row>
+    <row r="114" spans="1:6" s="2" customFormat="1" ht="99" customHeight="1">
+      <c r="A114" s="113"/>
+      <c r="B114" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="C114" s="90">
+      <c r="C114" s="76">
         <f>(B59+B61)/IF((B58+B60)=0,1,(B59+B61))</f>
         <v>0</v>
       </c>
-      <c r="D114" s="91" t="s">
+      <c r="D114" s="77" t="s">
         <v>149</v>
       </c>
-      <c r="E114" s="92">
+      <c r="E114" s="78">
         <f>IF(C114&gt;0.95,5,IF(C114&gt;0.9,4,IF(C114&gt;0.85,3,IF(C114&gt;0.8,2,IF(C114&gt;=0.75,1,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F114" s="93"/>
-    </row>
-    <row r="115" s="2" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A115" s="88"/>
-      <c r="B115" s="89" t="s">
+      <c r="F114" s="79"/>
+    </row>
+    <row r="115" spans="1:6" s="2" customFormat="1" ht="33" customHeight="1">
+      <c r="A115" s="113"/>
+      <c r="B115" s="75" t="s">
         <v>153</v>
       </c>
-      <c r="C115" s="94">
+      <c r="C115" s="80">
         <f>B55</f>
         <v>0</v>
       </c>
-      <c r="D115" s="95" t="s">
+      <c r="D115" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="E115" s="92" t="s">
+      <c r="E115" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="F115" s="93"/>
-    </row>
-    <row r="116" s="2" customFormat="1" ht="99" customHeight="1" spans="1:6">
-      <c r="A116" s="88" t="s">
+      <c r="F115" s="79"/>
+    </row>
+    <row r="116" spans="1:6" s="2" customFormat="1" ht="99" customHeight="1">
+      <c r="A116" s="113" t="s">
         <v>154</v>
       </c>
-      <c r="B116" s="89" t="s">
+      <c r="B116" s="75" t="s">
         <v>155</v>
       </c>
-      <c r="C116" s="96">
+      <c r="C116" s="82">
         <f>B62/100</f>
         <v>0</v>
       </c>
-      <c r="D116" s="95" t="s">
+      <c r="D116" s="81" t="s">
         <v>156</v>
       </c>
-      <c r="E116" s="92">
+      <c r="E116" s="78">
         <f>IF(C116&gt;1.08,0,IF(C116&gt;1.04,1,IF(C116&gt;1,3,IF(C116&gt;0.96,5,IF(C116&gt;0.92,3,IF(C116&gt;0.88,1,0))))))</f>
         <v>0</v>
       </c>
-      <c r="F116" s="93"/>
-    </row>
-    <row r="117" s="2" customFormat="1" ht="99" customHeight="1" spans="1:6">
-      <c r="A117" s="88"/>
-      <c r="B117" s="89" t="s">
+      <c r="F116" s="79"/>
+    </row>
+    <row r="117" spans="1:6" s="2" customFormat="1" ht="99" customHeight="1">
+      <c r="A117" s="113"/>
+      <c r="B117" s="75" t="s">
         <v>157</v>
       </c>
-      <c r="C117" s="96">
+      <c r="C117" s="82">
         <f>IF(AND(B51=0,B34=0),1,B51/IF(B34=0,1,B34))</f>
         <v>1</v>
       </c>
-      <c r="D117" s="91" t="s">
+      <c r="D117" s="77" t="s">
         <v>158</v>
       </c>
-      <c r="E117" s="92">
+      <c r="E117" s="78">
         <f>IF(C117&gt;0.95,5,IF(C117&gt;0.9,4,IF(C117&gt;0.85,3,IF(C117&gt;0.8,2,IF(C117&gt;=0.75,1,0)))))</f>
         <v>5</v>
       </c>
-      <c r="F117" s="93"/>
-    </row>
-    <row r="118" customFormat="1" ht="99" customHeight="1" spans="1:6">
-      <c r="A118" s="88" t="s">
+      <c r="F117" s="79"/>
+    </row>
+    <row r="118" spans="1:6" ht="99" customHeight="1">
+      <c r="A118" s="113" t="s">
         <v>159</v>
       </c>
-      <c r="B118" s="89" t="s">
+      <c r="B118" s="75" t="s">
         <v>160</v>
       </c>
-      <c r="C118" s="90">
+      <c r="C118" s="76">
         <f>B48/(IF(B18=0,1,B18)/(1500*12))</f>
         <v>0</v>
       </c>
-      <c r="D118" s="91" t="s">
+      <c r="D118" s="77" t="s">
         <v>161</v>
       </c>
-      <c r="E118" s="92">
+      <c r="E118" s="78">
         <f>IF(C118&gt;0.9,5,IF(C118&gt;0.7,4,IF(C118&gt;0.5,3,IF(C118&gt;0.3,2,IF(C118&gt;0.1,1,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F118" s="97"/>
-    </row>
-    <row r="119" customFormat="1" ht="115.5" customHeight="1" spans="1:6">
-      <c r="A119" s="88"/>
-      <c r="B119" s="89" t="s">
+      <c r="F118" s="83"/>
+    </row>
+    <row r="119" spans="1:6" ht="115.5" customHeight="1">
+      <c r="A119" s="113"/>
+      <c r="B119" s="75" t="s">
         <v>162</v>
       </c>
-      <c r="C119" s="90">
+      <c r="C119" s="76">
         <f>B49/IF(B48=0,1,B48)</f>
         <v>0</v>
       </c>
-      <c r="D119" s="91" t="s">
+      <c r="D119" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="E119" s="92">
-        <f>IF(B48/B78&gt;=0.1,IF(C119&gt;0.2,1,IF(C119&gt;0.1,3,IF(C119&gt;=0,1,5))),IF(C119&gt;0.2,3,IF(C119&gt;0.1,5,IF(C119&gt;=0,1,1))))</f>
+      <c r="E119" s="78">
+        <f>IF(B48/B78&gt;=0.1,IF(C119&gt;0.2,1,IF(C119&gt;0.1,3,5)),IF(C119&gt;0.2,3,IF(C119&gt;0.1,5,1)))</f>
         <v>1</v>
       </c>
-      <c r="F119" s="97"/>
-    </row>
-    <row r="120" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A120" s="88"/>
-      <c r="B120" s="89" t="s">
+      <c r="F119" s="83"/>
+    </row>
+    <row r="120" spans="1:6" ht="33" customHeight="1">
+      <c r="A120" s="113"/>
+      <c r="B120" s="75" t="s">
         <v>164</v>
       </c>
-      <c r="C120" s="90">
+      <c r="C120" s="76">
         <f>B50</f>
         <v>0</v>
       </c>
-      <c r="D120" s="91" t="s">
+      <c r="D120" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="E120" s="92" t="s">
+      <c r="E120" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="F120" s="97"/>
-    </row>
-    <row r="121" customFormat="1" ht="99" customHeight="1" spans="1:6">
-      <c r="A121" s="88" t="s">
+      <c r="F120" s="83"/>
+    </row>
+    <row r="121" spans="1:6" ht="99" customHeight="1">
+      <c r="A121" s="113" t="s">
         <v>165</v>
       </c>
-      <c r="B121" s="89" t="s">
+      <c r="B121" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="C121" s="90">
+      <c r="C121" s="76">
         <f>(B42-B41)/ABS(IF(B41=0,1,B41))</f>
         <v>0</v>
       </c>
-      <c r="D121" s="91" t="s">
+      <c r="D121" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="E121" s="92">
+      <c r="E121" s="78">
         <f>IF(C121&gt;0.05,0,IF(C121&gt;0,1,IF(C121&gt;-0.1,2,IF(C121&gt;-0.2,3,IF(C121&gt;-0.3,4,5)))))</f>
         <v>2</v>
       </c>
-      <c r="F121" s="97"/>
-    </row>
-    <row r="122" customFormat="1" ht="99" customHeight="1" spans="1:6">
-      <c r="A122" s="88"/>
-      <c r="B122" s="89" t="s">
+      <c r="F121" s="83"/>
+    </row>
+    <row r="122" spans="1:6" ht="99" customHeight="1">
+      <c r="A122" s="113"/>
+      <c r="B122" s="75" t="s">
         <v>168</v>
       </c>
-      <c r="C122" s="90">
+      <c r="C122" s="76">
         <f>B44/IF(B42=0,1,B42)</f>
         <v>0</v>
       </c>
-      <c r="D122" s="91" t="s">
+      <c r="D122" s="77" t="s">
         <v>149</v>
       </c>
-      <c r="E122" s="92">
+      <c r="E122" s="78">
         <f>IF(C122&gt;0.95,5,IF(C122&gt;0.9,4,IF(C122&gt;0.85,3,IF(C122&gt;0.8,2,IF(C122&gt;=0.75,1,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F122" s="97"/>
-    </row>
-    <row r="123" customFormat="1" ht="66" customHeight="1" spans="1:6">
-      <c r="A123" s="88"/>
-      <c r="B123" s="89" t="s">
+      <c r="F122" s="83"/>
+    </row>
+    <row r="123" spans="1:6" ht="66" customHeight="1">
+      <c r="A123" s="113"/>
+      <c r="B123" s="75" t="s">
         <v>169</v>
       </c>
-      <c r="C123" s="98">
+      <c r="C123" s="84">
         <f>B46/IF(B42=0,1,B42)</f>
         <v>0</v>
       </c>
-      <c r="D123" s="91" t="s">
+      <c r="D123" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="E123" s="99">
+      <c r="E123" s="85">
         <f>IF(C123&gt;0.15,5,IF(C123&gt;0.1,3,IF(C123&gt;0.05,1,0)))</f>
         <v>0</v>
       </c>
-      <c r="F123" s="97"/>
-    </row>
-    <row r="124" customFormat="1" ht="99" customHeight="1" spans="1:6">
-      <c r="A124" s="88"/>
-      <c r="B124" s="89" t="s">
+      <c r="F123" s="83"/>
+    </row>
+    <row r="124" spans="1:6" ht="99" customHeight="1">
+      <c r="A124" s="113"/>
+      <c r="B124" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="C124" s="90">
+      <c r="C124" s="76">
         <f>B45/IF(B42=0,1,B42)</f>
         <v>0</v>
       </c>
-      <c r="D124" s="91" t="s">
+      <c r="D124" s="77" t="s">
         <v>149</v>
       </c>
-      <c r="E124" s="92">
+      <c r="E124" s="78">
         <f>IF(C124&gt;0.95,5,IF(C124&gt;0.9,4,IF(C124&gt;0.85,3,IF(C124&gt;0.8,2,IF(C124&gt;=0.75,1,0)))))</f>
         <v>0</v>
       </c>
-      <c r="F124" s="97"/>
-    </row>
-    <row r="125" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
-      <c r="A125" s="88"/>
-      <c r="B125" s="89" t="s">
+      <c r="F124" s="83"/>
+    </row>
+    <row r="125" spans="1:6" ht="19.5" customHeight="1">
+      <c r="A125" s="113"/>
+      <c r="B125" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="C125" s="98">
+      <c r="C125" s="84">
         <f>B47</f>
         <v>0</v>
       </c>
-      <c r="D125" s="95" t="s">
+      <c r="D125" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="E125" s="92" t="s">
+      <c r="E125" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="F125" s="97"/>
-    </row>
-    <row r="126" customFormat="1" ht="24.95" customHeight="1" spans="1:6">
-      <c r="A126" s="53" t="s">
+      <c r="F125" s="83"/>
+    </row>
+    <row r="126" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A126" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="B126" s="54"/>
-      <c r="C126" s="85"/>
-      <c r="D126" s="86"/>
-      <c r="E126" s="87"/>
-      <c r="F126" s="58">
+      <c r="B126" s="44"/>
+      <c r="C126" s="71"/>
+      <c r="D126" s="72"/>
+      <c r="E126" s="73"/>
+      <c r="F126" s="48">
         <f>SUM(E127:E134)/35*10</f>
-        <v>7.71428571428571</v>
-      </c>
-    </row>
-    <row r="127" customFormat="1" ht="66" customHeight="1" spans="1:6">
-      <c r="A127" s="100" t="s">
+        <v>7.7142857142857144</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="66" customHeight="1">
+      <c r="A127" s="86" t="s">
         <v>147</v>
       </c>
-      <c r="B127" s="101" t="s">
+      <c r="B127" s="87" t="s">
         <v>173</v>
       </c>
-      <c r="C127" s="102">
+      <c r="C127" s="88">
         <f>B64</f>
         <v>0</v>
       </c>
-      <c r="D127" s="103" t="s">
+      <c r="D127" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="E127" s="104">
+      <c r="E127" s="90">
         <f>IF(C127&gt;5,0,IF(C127&gt;3,3,IF(C127&gt;1,4,5)))</f>
         <v>5</v>
       </c>
-      <c r="F127" s="105"/>
-    </row>
-    <row r="128" customFormat="1" ht="66" customHeight="1" spans="1:6">
-      <c r="A128" s="106" t="s">
+      <c r="F127" s="91"/>
+    </row>
+    <row r="128" spans="1:6" ht="66" customHeight="1">
+      <c r="A128" s="114" t="s">
         <v>175</v>
       </c>
-      <c r="B128" s="101" t="s">
+      <c r="B128" s="87" t="s">
         <v>176</v>
       </c>
-      <c r="C128" s="107">
+      <c r="C128" s="92">
         <f>B65/IF(B71=0,1,B71)</f>
         <v>0</v>
       </c>
-      <c r="D128" s="108" t="s">
+      <c r="D128" s="93" t="s">
         <v>177</v>
       </c>
-      <c r="E128" s="104">
+      <c r="E128" s="90">
         <f>IF(C128&gt;0.3,0,IF(C128&gt;0.2,1,IF(C128&gt;0.1,3,5)))</f>
         <v>5</v>
       </c>
-      <c r="F128" s="105"/>
-    </row>
-    <row r="129" customFormat="1" ht="49.5" customHeight="1" spans="1:6">
-      <c r="A129" s="106"/>
-      <c r="B129" s="101" t="s">
+      <c r="F128" s="91"/>
+    </row>
+    <row r="129" spans="1:6" ht="49.5" customHeight="1">
+      <c r="A129" s="114"/>
+      <c r="B129" s="87" t="s">
         <v>178</v>
       </c>
-      <c r="C129" s="107">
+      <c r="C129" s="92">
         <f>B74/IF(B73=0,1,B73)</f>
         <v>0</v>
       </c>
-      <c r="D129" s="103" t="s">
+      <c r="D129" s="89" t="s">
         <v>179</v>
       </c>
-      <c r="E129" s="104">
+      <c r="E129" s="90">
         <f>IF(C129&gt;0.6,1,IF(C129&gt;0.2,3,5))</f>
         <v>5</v>
       </c>
-      <c r="F129" s="105"/>
-    </row>
-    <row r="130" customFormat="1" ht="66" customHeight="1" spans="1:6">
-      <c r="A130" s="109" t="s">
+      <c r="F129" s="91"/>
+    </row>
+    <row r="130" spans="1:6" ht="66" customHeight="1">
+      <c r="A130" s="115" t="s">
         <v>180</v>
       </c>
-      <c r="B130" s="101" t="s">
+      <c r="B130" s="87" t="s">
         <v>181</v>
       </c>
-      <c r="C130" s="110">
+      <c r="C130" s="95">
         <f>B66/IF(B68=0,1,B68)</f>
         <v>0</v>
       </c>
-      <c r="D130" s="108" t="s">
+      <c r="D130" s="93" t="s">
         <v>182</v>
       </c>
-      <c r="E130" s="104">
+      <c r="E130" s="90">
         <f>IF(C130&gt;0.15,0,IF(C130&gt;0.1,1,IF(C130&gt;0.05,3,5)))</f>
         <v>5</v>
       </c>
-      <c r="F130" s="105"/>
-    </row>
-    <row r="131" customFormat="1" ht="66" customHeight="1" spans="1:6">
-      <c r="A131" s="109"/>
-      <c r="B131" s="101" t="s">
+      <c r="F130" s="91"/>
+    </row>
+    <row r="131" spans="1:6" ht="66" customHeight="1">
+      <c r="A131" s="115"/>
+      <c r="B131" s="87" t="s">
         <v>183</v>
       </c>
-      <c r="C131" s="110">
+      <c r="C131" s="95">
         <f>B69/(IF(B68=0,1,B68)/6)</f>
         <v>0</v>
       </c>
-      <c r="D131" s="108" t="s">
+      <c r="D131" s="93" t="s">
         <v>184</v>
       </c>
-      <c r="E131" s="104">
+      <c r="E131" s="90">
         <f>IF(C131&gt;1,5,IF(C131&gt;0.8,3,1))</f>
         <v>1</v>
       </c>
-      <c r="F131" s="105"/>
-    </row>
-    <row r="132" customFormat="1" ht="66" customHeight="1" spans="1:6">
-      <c r="A132" s="109"/>
-      <c r="B132" s="101" t="s">
+      <c r="F131" s="91"/>
+    </row>
+    <row r="132" spans="1:6" ht="66" customHeight="1">
+      <c r="A132" s="115"/>
+      <c r="B132" s="87" t="s">
         <v>185</v>
       </c>
-      <c r="C132" s="102">
+      <c r="C132" s="88">
         <f>B70/(IF(B68=0,1,B68)/30)</f>
         <v>0</v>
       </c>
-      <c r="D132" s="108" t="s">
+      <c r="D132" s="93" t="s">
         <v>184</v>
       </c>
-      <c r="E132" s="104">
+      <c r="E132" s="90">
         <f>IF(C132&gt;1,5,IF(C132&gt;0.8,3,1))</f>
         <v>1</v>
       </c>
-      <c r="F132" s="105"/>
-    </row>
-    <row r="133" customFormat="1" ht="19.5" hidden="1" customHeight="1" spans="1:6">
-      <c r="A133" s="109"/>
-      <c r="B133" s="101" t="s">
+      <c r="F132" s="91"/>
+    </row>
+    <row r="133" spans="1:6" ht="19.5" hidden="1" customHeight="1">
+      <c r="A133" s="115"/>
+      <c r="B133" s="87" t="s">
         <v>186</v>
       </c>
-      <c r="C133" s="102"/>
-      <c r="D133" s="108" t="s">
+      <c r="C133" s="88"/>
+      <c r="D133" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="E133" s="104" t="s">
+      <c r="E133" s="90" t="s">
         <v>116</v>
       </c>
-      <c r="F133" s="105"/>
-    </row>
-    <row r="134" customFormat="1" ht="66" customHeight="1" spans="1:6">
-      <c r="A134" s="109" t="s">
+      <c r="F133" s="91"/>
+    </row>
+    <row r="134" spans="1:6" ht="66" customHeight="1">
+      <c r="A134" s="94" t="s">
         <v>187</v>
       </c>
-      <c r="B134" s="101" t="s">
+      <c r="B134" s="87" t="s">
         <v>188</v>
       </c>
-      <c r="C134" s="110">
+      <c r="C134" s="95">
         <f>B67/IF(B72=0,1,B72)</f>
         <v>0</v>
       </c>
-      <c r="D134" s="108" t="s">
+      <c r="D134" s="93" t="s">
         <v>177</v>
       </c>
-      <c r="E134" s="104">
+      <c r="E134" s="90">
         <f>IF(C134&gt;0.3,0,IF(C134&gt;0.2,1,IF(C134&gt;0.1,3,5)))</f>
         <v>5</v>
       </c>
-      <c r="F134" s="105"/>
+      <c r="F134" s="91"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="A121:A125"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="A105:A107"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C81:E81"/>
     <mergeCell ref="A83:A90"/>
     <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="A121:A125"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="A130:A133"/>
   </mergeCells>
-  <pageMargins left="0.69930555555556" right="0.69930555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555995" right="0.69930555555555995" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>